--- a/Resources/UserTestData.xlsx
+++ b/Resources/UserTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikatkar\git\testng_Realtime\testng_Realtime\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138731D-F30A-46B7-A693-F229C6640DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BE1B7-8B8F-43C9-AA20-B2616DD7062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>UserID</t>
   </si>
@@ -57,36 +57,18 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>test@1</t>
-  </si>
-  <si>
     <t>testuser2</t>
   </si>
   <si>
     <t>Mohan</t>
   </si>
   <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>test@2</t>
-  </si>
-  <si>
     <t>testuser3</t>
   </si>
   <si>
     <t>Sohan</t>
   </si>
   <si>
-    <t>c@gmail.com</t>
-  </si>
-  <si>
-    <t>test@3</t>
-  </si>
-  <si>
     <t>1010</t>
   </si>
   <si>
@@ -94,6 +76,18 @@
   </si>
   <si>
     <t>1030</t>
+  </si>
+  <si>
+    <t>kirankatkar3317@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiran@3317</t>
+  </si>
+  <si>
+    <t>kirankatkar3318@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiran@3318</t>
   </si>
 </sst>
 </file>
@@ -440,7 +434,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +468,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -486,10 +480,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>1234567893</v>
@@ -497,22 +491,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>1234567893</v>
@@ -520,37 +514,29 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>1234567893</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{79E01435-0AE3-4E56-AECA-00FC685E457D}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{49F39D7B-FB62-435E-B76F-F6795759FCBD}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{C6F491DF-84AE-40FC-9DF6-F1699F5A14B9}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{100AEF3D-6B7C-4D4A-A0BF-938A06BFD214}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{7E54B4D9-A942-481D-8969-8FB07BF01434}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{93ED8C2E-310A-435B-8928-6847E6A1FB07}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/UserTestData.xlsx
+++ b/Resources/UserTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikatkar\git\testng_Realtime\testng_Realtime\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BE1B7-8B8F-43C9-AA20-B2616DD7062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7AFF36-4176-468A-9559-14FD5078280C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>UserID</t>
   </si>
@@ -88,6 +89,45 @@
   </si>
   <si>
     <t>Kiran@3318</t>
+  </si>
+  <si>
+    <t>sakiran2230@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiran@2230</t>
+  </si>
+  <si>
+    <t>aniket</t>
+  </si>
+  <si>
+    <t>varma</t>
+  </si>
+  <si>
+    <t>kiran.akatkar3317@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiran@9103</t>
+  </si>
+  <si>
+    <t>abhi</t>
+  </si>
+  <si>
+    <t>katkar</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>testusr</t>
+  </si>
+  <si>
+    <t>kiran</t>
   </si>
 </sst>
 </file>
@@ -431,16 +471,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,13 +532,150 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>21343113134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1234567893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>7328832329</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{949C7892-FADF-422C-B063-9C01947378CF}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{F702CB8A-B143-4C5C-9185-28EABF83A527}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{3D60F051-3528-4884-8833-468B453C018D}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{BF69B087-2EBF-4138-ADDD-EB154EB9533B}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{EEC872F4-3415-425A-BA5C-F3D1FF99B72E}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{774BD7C6-D196-4F5D-8113-E9AB686EA6FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E96054-957D-4C66-A9BA-1F0FE73B1CA7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>1234567893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -512,31 +690,7 @@
         <v>1234567893</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>1234567893</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>